--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Completed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Not Completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -548,16 +548,8 @@
           <t>Week 1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Not Completed</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Model has been created and building as been started </t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -585,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Completed</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -548,8 +548,16 @@
           <t>Week 1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Not Completed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model has been created and building as been started </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -575,11 +583,7 @@
           <t>Week 1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Not Completed</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -583,7 +583,11 @@
           <t>Week 1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not Completed</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Completed</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Completed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/Batch 2 tracker.xlsx
+++ b/Batch 2 tracker.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Completed</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -928,7 +928,11 @@
           <t>Week 2</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
